--- a/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-iam-dashboard.xlsx
+++ b/src/main/resources/script/db/init-data/devops_service/hzero_platform/choerodon-iam-dashboard.xlsx
@@ -3576,8 +3576,8 @@
   <sheetPr/>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:H25"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -3747,10 +3747,10 @@
         <v>82</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -3784,10 +3784,10 @@
         <v>87</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12">
         <v>9</v>
@@ -3860,10 +3860,10 @@
         <v>fd_dashboard_card-29</v>
       </c>
       <c r="I15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -3885,10 +3885,10 @@
         <v>fd_dashboard_card-30</v>
       </c>
       <c r="I16">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>0</v>
